--- a/analysis/data/raw_data/SW-china-potsherd.xlsx
+++ b/analysis/data/raw_data/SW-china-potsherd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EmilyWang/Desktop/School document/LW-Papers/GJBpottery/analysis/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FB52F2-CB01-3B4C-8790-1A50EE42A505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F9F2E7-48DE-224D-A0C5-52AD03069C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35560" yWindow="6740" windowWidth="25900" windowHeight="15900" xr2:uid="{3945E909-0D61-394F-93D6-519F4D304DC2}"/>
+    <workbookView xWindow="35560" yWindow="5700" windowWidth="25900" windowHeight="15900" xr2:uid="{3945E909-0D61-394F-93D6-519F4D304DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>SYG-TN13-E22-2#2</t>
   </si>
@@ -56,18 +55,12 @@
     <t>base</t>
   </si>
   <si>
-    <t>body</t>
-  </si>
-  <si>
     <t>SYG-TN13-E22-1</t>
   </si>
   <si>
     <t>gray 7.5YR5/2, coarse temper, impressed decoration</t>
   </si>
   <si>
-    <t>red 2.5YR5/2, fine temper</t>
-  </si>
-  <si>
     <t>gray 7.5YR4/3, fine temper</t>
   </si>
   <si>
@@ -83,18 +76,12 @@
     <t xml:space="preserve">Neolithic </t>
   </si>
   <si>
-    <t xml:space="preserve">historical </t>
-  </si>
-  <si>
     <t>Neolithic</t>
   </si>
   <si>
     <t>Sherd label</t>
   </si>
   <si>
-    <t>Field season</t>
-  </si>
-  <si>
     <t>Analyzed part</t>
   </si>
   <si>
@@ -105,6 +92,24 @@
   </si>
   <si>
     <t>base-body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historical </t>
+  </si>
+  <si>
+    <t>Site/ Field Season</t>
+  </si>
+  <si>
+    <t>Guijiabao/ 2017</t>
+  </si>
+  <si>
+    <t>Guijiabao/ 2016</t>
+  </si>
+  <si>
+    <t>Gaoshan/ 2015</t>
+  </si>
+  <si>
+    <t>red 2.5YR5/2, fine temper, chars on exterior side</t>
   </si>
 </sst>
 </file>
@@ -459,13 +464,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" customWidth="1"/>
     <col min="5" max="5" width="55.33203125" customWidth="1"/>
@@ -477,121 +482,121 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2">
-        <v>2017</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>2017</v>
+      <c r="B3" t="s">
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
-        <v>2017</v>
+      <c r="B4" t="s">
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>2017</v>
+      <c r="B5" t="s">
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>2016</v>
+      <c r="B6" t="s">
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>2015</v>
+      <c r="B7" t="s">
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
